--- a/sputnik/personal/ee/238ee.xlsx
+++ b/sputnik/personal/ee/238ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,28 +11,19 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -42,23 +33,38 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>С 01.01.2019 тариф 4,57 руб Вам начислена доплата 5777 х 0,07 = 404,39</t>
-  </si>
-  <si>
-    <t>переплата</t>
-  </si>
-  <si>
     <t>Начислены пени за проскочку оплаты за ЭЭ на 530 дней в сумме 12738,29 руб. (25996.50 х 0.1% х 490)</t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>итого с пенями</t>
+  </si>
+  <si>
+    <t>к доплате</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -142,19 +148,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -204,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -217,58 +210,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -331,7 +304,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,10 +336,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -398,7 +370,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -574,17 +545,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -592,34 +563,39 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1">
       <c r="A2" s="4">
         <v>43015</v>
       </c>
@@ -632,299 +608,274 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A3" s="4">
         <v>43557</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="3">
         <v>11159</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="3">
         <v>5777</v>
       </c>
       <c r="E3" s="6">
         <v>4.5</v>
       </c>
-      <c r="F3" s="19">
-        <f>PRODUCT(D3,E3)</f>
+      <c r="F3" s="14">
+        <f t="shared" ref="F3:F9" si="0">PRODUCT(D3,E3)</f>
         <v>25996.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="15">
+        <v>25996.5</v>
+      </c>
+      <c r="H3" s="15">
+        <v>25996.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1">
       <c r="A4" s="4">
-        <v>43557</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43605</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>11309</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D9" si="1">SUM(C4,-C3)</f>
+        <v>150</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4.57</v>
+      </c>
+      <c r="F4" s="14">
+        <f t="shared" si="0"/>
+        <v>685.5</v>
+      </c>
+      <c r="G4" s="15">
+        <v>685.5</v>
+      </c>
+      <c r="H4" s="15">
+        <v>685.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1">
       <c r="A5" s="4">
-        <v>43557</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="25"/>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
-        <v>43605</v>
+        <v>43647</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>11509</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4.57</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" si="0"/>
+        <v>914</v>
+      </c>
+      <c r="G5" s="15">
+        <v>914</v>
+      </c>
+      <c r="H5" s="15">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4">
+        <v>43657</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="17">
-        <v>11309</v>
-      </c>
-      <c r="D6" s="17">
-        <f>SUM(C6,-C3)</f>
-        <v>150</v>
+      <c r="C6" s="3">
+        <v>11709</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
       <c r="E6" s="6">
-        <v>4.57</v>
-      </c>
-      <c r="F6" s="19">
-        <f>PRODUCT(D6,E6)</f>
-        <v>685.5</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
-        <v>43647</v>
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="0"/>
+        <v>898</v>
+      </c>
+      <c r="G6" s="15">
+        <v>898</v>
+      </c>
+      <c r="H6" s="15">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4">
+        <v>43669</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="17">
-        <v>11509</v>
-      </c>
-      <c r="D7" s="17">
-        <f>SUM(C7,-C6)</f>
+      <c r="C7" s="3">
+        <v>11909</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="E7" s="6">
-        <v>4.57</v>
-      </c>
-      <c r="F7" s="19">
-        <f>PRODUCT(D7,E7)</f>
+        <v>4.49</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="0"/>
+        <v>898</v>
+      </c>
+      <c r="G7" s="15">
+        <v>898</v>
+      </c>
+      <c r="H7" s="15">
         <v>914</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
-        <v>43657</v>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4">
+        <v>43767</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="17">
-        <v>11709</v>
-      </c>
-      <c r="D8" s="17">
-        <f>SUM(C8,-C7)</f>
+      <c r="C8" s="3">
+        <v>12112</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="1"/>
+        <v>203</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="0"/>
+        <v>911.47</v>
+      </c>
+      <c r="G8" s="15">
+        <v>911.47</v>
+      </c>
+      <c r="H8" s="15">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4">
+        <v>43794</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>12312</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E9" s="6">
         <v>4.49</v>
       </c>
-      <c r="F8" s="19">
-        <f>PRODUCT(D8,E8)</f>
+      <c r="F9" s="14">
+        <f t="shared" si="0"/>
         <v>898</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
-        <v>43669</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="17">
-        <v>11909</v>
-      </c>
-      <c r="D10" s="17">
-        <f>SUM(C10,-C8)</f>
-        <v>200</v>
-      </c>
-      <c r="E10" s="20">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="19">
-        <f>PRODUCT(D10,E10)</f>
+      <c r="G9" s="15">
         <v>898</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
-        <v>43767</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="17">
-        <v>12112</v>
-      </c>
-      <c r="D12" s="17">
-        <f>SUM(C12,-C10)</f>
-        <v>203</v>
-      </c>
-      <c r="E12" s="20">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="19">
-        <f>PRODUCT(D12,E12)</f>
-        <v>911.47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="H9" s="15">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="15">
+        <f>SUM(G2:G9)</f>
+        <v>31201.47</v>
+      </c>
+      <c r="H10" s="15">
+        <f>SUM(H2:H9)</f>
+        <v>31236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4">
+        <v>43557</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="15">
+        <v>12738.29</v>
+      </c>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="15">
+        <f>SUM(G10:G11)</f>
+        <v>43939.76</v>
+      </c>
+      <c r="H12" s="15">
+        <f>SUM(H10:H11)</f>
+        <v>31236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="8"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6">
-        <v>2.5299999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
-        <v>43794</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="17">
-        <v>12312</v>
-      </c>
-      <c r="D14" s="17">
-        <f>SUM(C14,-C12)</f>
-        <v>200</v>
-      </c>
-      <c r="E14" s="20">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="19">
-        <f>PRODUCT(D14,E14)</f>
-        <v>898</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="16">
+        <f>SUM(H12,-G12)</f>
+        <v>-12703.760000000002</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:F5"/>
+  <mergeCells count="1">
+    <mergeCell ref="B11:F11"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -933,12 +884,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -947,12 +898,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/238ee.xlsx
+++ b/sputnik/personal/ee/238ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -48,23 +48,23 @@
     <t>оплачено</t>
   </si>
   <si>
-    <t>итого за период</t>
-  </si>
-  <si>
     <t>итого с пенями</t>
   </si>
   <si>
     <t>к доплате</t>
+  </si>
+  <si>
+    <t>Т</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,14 +97,12 @@
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -118,7 +116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -141,63 +139,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -217,32 +163,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -304,7 +243,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,9 +275,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,6 +310,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -545,17 +486,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -569,7 +510,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -595,7 +536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43015</v>
       </c>
@@ -608,10 +549,10 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43557</v>
       </c>
@@ -627,18 +568,18 @@
       <c r="E3" s="6">
         <v>4.5</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="10">
         <f t="shared" ref="F3:F9" si="0">PRODUCT(D3,E3)</f>
         <v>25996.5</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="11">
         <v>25996.5</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="11">
         <v>25996.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43605</v>
       </c>
@@ -655,18 +596,18 @@
       <c r="E4" s="6">
         <v>4.57</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="10">
         <f t="shared" si="0"/>
         <v>685.5</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="11">
         <v>685.5</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="11">
         <v>685.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1">
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43647</v>
       </c>
@@ -683,18 +624,18 @@
       <c r="E5" s="6">
         <v>4.57</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="10">
         <f t="shared" si="0"/>
         <v>914</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="11">
         <v>914</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="11">
         <v>914</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43657</v>
       </c>
@@ -711,18 +652,18 @@
       <c r="E6" s="6">
         <v>4.49</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="10">
         <f t="shared" si="0"/>
         <v>898</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="11">
         <v>898</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="11">
         <v>914</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43669</v>
       </c>
@@ -739,18 +680,18 @@
       <c r="E7" s="6">
         <v>4.49</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="10">
         <f t="shared" si="0"/>
         <v>898</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="11">
         <v>898</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="11">
         <v>914</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43767</v>
       </c>
@@ -767,18 +708,18 @@
       <c r="E8" s="6">
         <v>4.49</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="10">
         <f t="shared" si="0"/>
         <v>911.47</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="11">
         <v>911.47</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="11">
         <v>914</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43794</v>
       </c>
@@ -795,88 +736,103 @@
       <c r="E9" s="6">
         <v>4.49</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="10">
         <f t="shared" si="0"/>
         <v>898</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="11">
         <v>898</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="11">
         <v>898</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="15">
-        <f>SUM(G2:G9)</f>
-        <v>31201.47</v>
-      </c>
-      <c r="H10" s="15">
-        <f>SUM(H2:H9)</f>
-        <v>31236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>43557</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>12738.29</v>
+      </c>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>43557</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="15">
-        <v>12738.29</v>
-      </c>
-      <c r="H11" s="15"/>
-    </row>
-    <row r="12" spans="1:8">
+        <v>43983</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>12515</v>
+      </c>
+      <c r="D11" s="3">
+        <f>SUM(C11,-C9)</f>
+        <v>203</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" ref="F11" si="2">PRODUCT(D11,E11)</f>
+        <v>911.47</v>
+      </c>
+      <c r="G11" s="11">
+        <v>911.47</v>
+      </c>
+      <c r="H11" s="11">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="15">
+        <v>10</v>
+      </c>
+      <c r="G12" s="11">
         <f>SUM(G10:G11)</f>
-        <v>43939.76</v>
-      </c>
-      <c r="H12" s="15">
+        <v>13649.76</v>
+      </c>
+      <c r="H12" s="11">
         <f>SUM(H10:H11)</f>
-        <v>31236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="12"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="16">
+      <c r="H13" s="12">
         <f>SUM(H12,-G12)</f>
-        <v>-12703.760000000002</v>
+        <v>-12735.76</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B11:F11"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -884,12 +840,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -898,12 +854,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/238ee.xlsx
+++ b/sputnik/personal/ee/238ee.xlsx
@@ -64,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,13 +96,30 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -143,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -171,16 +188,22 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -493,7 +516,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -748,25 +771,25 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="13">
         <v>43557</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="14">
-        <v>0</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="14">
-        <v>0</v>
-      </c>
-      <c r="F10" s="16">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
+      <c r="G10" s="18">
         <v>12738.29</v>
       </c>
       <c r="H10" s="11"/>

--- a/sputnik/personal/ee/238ee.xlsx
+++ b/sputnik/personal/ee/238ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Т</t>
+  </si>
+  <si>
+    <t>Т2</t>
   </si>
 </sst>
 </file>
@@ -125,12 +128,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -160,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -188,23 +197,36 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,10 +535,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A12" sqref="A12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -792,7 +814,7 @@
       <c r="G10" s="18">
         <v>12738.29</v>
       </c>
-      <c r="H10" s="11"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -823,36 +845,208 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6" t="s">
+      <c r="A12" s="20">
+        <v>44002</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="21">
+        <v>15865</v>
+      </c>
+      <c r="D12" s="21">
+        <f>SUM(C12,-C11)</f>
+        <v>3350</v>
+      </c>
+      <c r="E12" s="22">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="23">
+        <f t="shared" ref="F12:F14" si="3">PRODUCT(D12,E12)</f>
+        <v>15041.5</v>
+      </c>
+      <c r="G12" s="19">
+        <v>15041.5</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>44035</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>200</v>
+      </c>
+      <c r="D13" s="3">
+        <v>200</v>
+      </c>
+      <c r="E13" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="3"/>
+        <v>942</v>
+      </c>
+      <c r="G13" s="11">
+        <v>942</v>
+      </c>
+      <c r="H13" s="11">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>44039</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>200</v>
+      </c>
+      <c r="D15" s="3">
+        <v>200</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" ref="F15:F16" si="4">PRODUCT(D15,E15)</f>
+        <v>942</v>
+      </c>
+      <c r="G15" s="11">
+        <v>942</v>
+      </c>
+      <c r="H15" s="11">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>44041</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>200</v>
+      </c>
+      <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" ref="F17:F18" si="5">PRODUCT(D17,E17)</f>
+        <v>942</v>
+      </c>
+      <c r="G17" s="11">
+        <v>942</v>
+      </c>
+      <c r="H17" s="11">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="11">
-        <f>SUM(G10:G11)</f>
-        <v>13649.76</v>
-      </c>
-      <c r="H12" s="11">
-        <f>SUM(H10:H11)</f>
-        <v>914</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="6" t="s">
+      <c r="G19" s="11">
+        <f>SUM(G2:G18)</f>
+        <v>62718.73</v>
+      </c>
+      <c r="H19" s="11">
+        <f>SUM(H2:H18)</f>
+        <v>34892</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="12">
-        <f>SUM(H12,-G12)</f>
-        <v>-12735.76</v>
+      <c r="G20" s="2"/>
+      <c r="H20" s="12">
+        <f>SUM(H19,-G19)</f>
+        <v>-27826.730000000003</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/238ee.xlsx
+++ b/sputnik/personal/ee/238ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
   <si>
     <t>Т1</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Т2</t>
+  </si>
+  <si>
+    <t>доплата по старому счетчику</t>
   </si>
 </sst>
 </file>
@@ -67,7 +70,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +130,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -169,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -227,6 +237,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,10 +548,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:H12"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -937,7 +950,7 @@
         <v>4.71</v>
       </c>
       <c r="F15" s="10">
-        <f t="shared" ref="F15:F16" si="4">PRODUCT(D15,E15)</f>
+        <f t="shared" ref="F15:F20" si="4">PRODUCT(D15,E15)</f>
         <v>942</v>
       </c>
       <c r="G15" s="11">
@@ -985,7 +998,7 @@
         <v>4.71</v>
       </c>
       <c r="F17" s="10">
-        <f t="shared" ref="F17:F18" si="5">PRODUCT(D17,E17)</f>
+        <f t="shared" si="4"/>
         <v>942</v>
       </c>
       <c r="G17" s="11">
@@ -1010,43 +1023,241 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="F18" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6" t="s">
+      <c r="A19" s="4">
+        <v>44046</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>200</v>
+      </c>
+      <c r="D19" s="3">
+        <v>200</v>
+      </c>
+      <c r="E19" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="4"/>
+        <v>942</v>
+      </c>
+      <c r="G19" s="11">
+        <v>942</v>
+      </c>
+      <c r="H19" s="11">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>44046</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>200</v>
+      </c>
+      <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" ref="F21:F22" si="5">PRODUCT(D21,E21)</f>
+        <v>942</v>
+      </c>
+      <c r="G21" s="11">
+        <v>942</v>
+      </c>
+      <c r="H21" s="11">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>44050</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>200</v>
+      </c>
+      <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" ref="F23:F24" si="6">PRODUCT(D23,E23)</f>
+        <v>942</v>
+      </c>
+      <c r="G23" s="11">
+        <v>942</v>
+      </c>
+      <c r="H23" s="11">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>44060</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" ref="F25" si="7">PRODUCT(D25,E25)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>11432.44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>44060</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" ref="F26" si="8">PRODUCT(D26,E26)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="11">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="11">
-        <f>SUM(G2:G18)</f>
-        <v>62718.73</v>
-      </c>
-      <c r="H19" s="11">
-        <f>SUM(H2:H18)</f>
-        <v>34892</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="6" t="s">
+      <c r="G27" s="11">
+        <f>SUM(G2:G26)</f>
+        <v>65544.73000000001</v>
+      </c>
+      <c r="H27" s="11">
+        <f>SUM(H2:H26)</f>
+        <v>49980.44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="12">
-        <f>SUM(H19,-G19)</f>
-        <v>-27826.730000000003</v>
+      <c r="G28" s="2"/>
+      <c r="H28" s="12">
+        <f>SUM(H27,-G27)</f>
+        <v>-15564.290000000008</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/238ee.xlsx
+++ b/sputnik/personal/ee/238ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
   <si>
     <t>Т1</t>
   </si>
@@ -548,10 +548,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="10">
-        <f t="shared" ref="F26" si="8">PRODUCT(D26,E26)</f>
+        <f t="shared" ref="F26:F28" si="8">PRODUCT(D26,E26)</f>
         <v>0</v>
       </c>
       <c r="G26" s="11">
@@ -1228,36 +1228,84 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="6" t="s">
+      <c r="A27" s="4">
+        <v>44123</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="11">
-        <f>SUM(G2:G26)</f>
+      <c r="G29" s="11">
+        <f>SUM(G2:G28)</f>
         <v>65544.73000000001</v>
       </c>
-      <c r="H27" s="11">
-        <f>SUM(H2:H26)</f>
-        <v>49980.44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="6" t="s">
+      <c r="H29" s="11">
+        <f>SUM(H2:H28)</f>
+        <v>50688.44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="12">
-        <f>SUM(H27,-G27)</f>
-        <v>-15564.290000000008</v>
+      <c r="G30" s="2"/>
+      <c r="H30" s="12">
+        <f>SUM(H29,-G29)</f>
+        <v>-14856.290000000008</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/238ee.xlsx
+++ b/sputnik/personal/ee/238ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="15">
   <si>
     <t>Т1</t>
   </si>
@@ -548,10 +548,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1276,36 +1276,84 @@
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="6" t="s">
+      <c r="A29" s="4">
+        <v>44154</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F29" s="10">
+        <f t="shared" ref="F29:F30" si="9">PRODUCT(D29,E29)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0</v>
+      </c>
+      <c r="H29" s="11">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="11">
-        <f>SUM(G2:G28)</f>
+      <c r="G31" s="11">
+        <f>SUM(G2:G30)</f>
         <v>65544.73000000001</v>
       </c>
-      <c r="H29" s="11">
-        <f>SUM(H2:H28)</f>
-        <v>50688.44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="6" t="s">
+      <c r="H31" s="11">
+        <f>SUM(H2:H30)</f>
+        <v>52718.44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="12">
-        <f>SUM(H29,-G29)</f>
-        <v>-14856.290000000008</v>
+      <c r="G32" s="2"/>
+      <c r="H32" s="12">
+        <f>SUM(H31,-G31)</f>
+        <v>-12826.290000000008</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/238ee.xlsx
+++ b/sputnik/personal/ee/238ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\23.01.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 25.01.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.03.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.03.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -447,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:H13"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +491,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44217</v>
+        <v>44315</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
@@ -500,21 +500,21 @@
         <v>0</v>
       </c>
       <c r="D2" s="12">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E2" s="3">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="G2" s="8">
         <f t="shared" ref="G2" si="1">SUM(F2,F3)</f>
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="H2" s="8">
-        <v>2603</v>
+        <v>942</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -540,7 +540,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
-        <v>44181</v>
+        <v>44313</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
@@ -555,15 +555,15 @@
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F11" si="2">D4*E4</f>
+        <f t="shared" ref="F4:F5" si="2">D4*E4</f>
         <v>0</v>
       </c>
       <c r="G4" s="8">
-        <f>SUM(F4,F5)</f>
-        <v>0</v>
+        <f t="shared" ref="G4" si="3">SUM(F4,F5)</f>
+        <v>509.99999999999994</v>
       </c>
       <c r="H4" s="8">
-        <v>219</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -575,21 +575,21 @@
         <v>0</v>
       </c>
       <c r="D5" s="12">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="8"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G5" s="3"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>44180</v>
+      <c r="A6" s="14">
+        <v>44308</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
@@ -604,15 +604,15 @@
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F6:F7" si="4">D6*E6</f>
         <v>0</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" ref="G6:G10" si="3">SUM(F6,F7)</f>
-        <v>0</v>
+        <f t="shared" ref="G6" si="5">SUM(F6,F7)</f>
+        <v>509.99999999999994</v>
       </c>
       <c r="H6" s="8">
-        <v>879</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -624,21 +624,21 @@
         <v>0</v>
       </c>
       <c r="D7" s="12">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="8"/>
+        <f t="shared" si="4"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G7" s="3"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>44154</v>
+      <c r="A8" s="14">
+        <v>44307</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
@@ -653,18 +653,18 @@
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F8:F9" si="6">D8*E8</f>
         <v>0</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="G8" si="7">SUM(F8,F9)</f>
+        <v>509.99999999999994</v>
       </c>
       <c r="H8" s="8">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>9</v>
@@ -673,21 +673,21 @@
         <v>0</v>
       </c>
       <c r="D9" s="12">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="8"/>
+        <f t="shared" si="6"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G9" s="3"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>44123</v>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>44306</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
@@ -702,18 +702,18 @@
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F10:F11" si="8">D10*E10</f>
         <v>0</v>
       </c>
       <c r="G10" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="G10" si="9">SUM(F10,F11)</f>
+        <v>509.99999999999994</v>
       </c>
       <c r="H10" s="8">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>9</v>
@@ -722,73 +722,1165 @@
         <v>0</v>
       </c>
       <c r="D11" s="12">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>509.99999999999994</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>44305</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" ref="F12:F13" si="10">D12*E12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" ref="G12" si="11">SUM(F12,F13)</f>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="H12" s="8">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="8"/>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>200</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="10"/>
+        <v>509.99999999999994</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>44302</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ref="F14:F15" si="12">D14*E14</f>
+        <v>942</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" ref="G14" si="13">SUM(F14,F15)</f>
+        <v>942</v>
+      </c>
+      <c r="H14" s="8">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>44301</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <v>200</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" ref="F16:F17" si="14">D16*E16</f>
+        <v>942</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" ref="G16" si="15">SUM(F16,F17)</f>
+        <v>942</v>
+      </c>
+      <c r="H16" s="8">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>44299</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" ref="F18:F19" si="16">D18*E18</f>
+        <v>942</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18" si="17">SUM(F18,F19)</f>
+        <v>942</v>
+      </c>
+      <c r="H18" s="8">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>44287</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0</v>
+      </c>
+      <c r="D20" s="12">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" ref="F20:F21" si="18">D20*E20</f>
+        <v>942</v>
+      </c>
+      <c r="G20" s="8">
+        <f t="shared" ref="G20" si="19">SUM(F20,F21)</f>
+        <v>942</v>
+      </c>
+      <c r="H20" s="8">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>44281</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0</v>
+      </c>
+      <c r="D22" s="12">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" ref="F22:F23" si="20">D22*E22</f>
+        <v>942</v>
+      </c>
+      <c r="G22" s="8">
+        <f t="shared" ref="G22" si="21">SUM(F22,F23)</f>
+        <v>942</v>
+      </c>
+      <c r="H22" s="8">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>44280</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="12">
+        <v>0</v>
+      </c>
+      <c r="D24" s="12">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" ref="F24:F25" si="22">D24*E24</f>
+        <v>942</v>
+      </c>
+      <c r="G24" s="8">
+        <f t="shared" ref="G24" si="23">SUM(F24,F25)</f>
+        <v>942</v>
+      </c>
+      <c r="H24" s="8">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>44279</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="12">
+        <v>0</v>
+      </c>
+      <c r="D26" s="12">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" ref="F26:F29" si="24">D26*E26</f>
+        <v>942</v>
+      </c>
+      <c r="G26" s="8">
+        <f t="shared" ref="G26" si="25">SUM(F26,F27)</f>
+        <v>942</v>
+      </c>
+      <c r="H26" s="8">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>44278</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="12">
+        <v>0</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" ref="F28" si="26">D28*E28</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <f t="shared" ref="G28" si="27">SUM(F28,F29)</f>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="H28" s="8">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="12">
+        <v>0</v>
+      </c>
+      <c r="D29" s="12">
+        <v>200</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="24"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>44277</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="12">
+        <v>0</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" ref="F30:F31" si="28">D30*E30</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
+        <f t="shared" ref="G30" si="29">SUM(F30,F31)</f>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="H30" s="8">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="12">
+        <v>0</v>
+      </c>
+      <c r="D31" s="12">
+        <v>200</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="28"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <v>44271</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="12">
+        <v>0</v>
+      </c>
+      <c r="D32" s="12">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" ref="F32:F33" si="30">D32*E32</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="8">
+        <f t="shared" ref="G32" si="31">SUM(F32,F33)</f>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="H32" s="8">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="12">
+        <v>0</v>
+      </c>
+      <c r="D33" s="12">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F33" s="8">
+        <f t="shared" si="30"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>44270</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="12">
+        <v>0</v>
+      </c>
+      <c r="D34" s="12">
+        <v>200</v>
+      </c>
+      <c r="E34" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" ref="F34:F35" si="32">D34*E34</f>
+        <v>942</v>
+      </c>
+      <c r="G34" s="8">
+        <f t="shared" ref="G34" si="33">SUM(F34,F35)</f>
+        <v>942</v>
+      </c>
+      <c r="H34" s="8">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="12">
+        <v>0</v>
+      </c>
+      <c r="D35" s="12">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F35" s="8">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
+        <v>44251</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="12">
+        <v>0</v>
+      </c>
+      <c r="D36" s="12">
+        <v>200</v>
+      </c>
+      <c r="E36" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F36" s="8">
+        <f t="shared" ref="F36:F37" si="34">D36*E36</f>
+        <v>942</v>
+      </c>
+      <c r="G36" s="8">
+        <f t="shared" ref="G36" si="35">SUM(F36,F37)</f>
+        <v>942</v>
+      </c>
+      <c r="H36" s="8">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="12">
+        <v>0</v>
+      </c>
+      <c r="D37" s="12">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F37" s="8">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
+        <v>44247</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="12">
+        <v>0</v>
+      </c>
+      <c r="D38" s="12">
+        <v>200</v>
+      </c>
+      <c r="E38" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F38" s="8">
+        <f t="shared" ref="F38:F41" si="36">D38*E38</f>
+        <v>942</v>
+      </c>
+      <c r="G38" s="8">
+        <f t="shared" ref="G38" si="37">SUM(F38,F39)</f>
+        <v>942</v>
+      </c>
+      <c r="H38" s="8">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="12">
+        <v>0</v>
+      </c>
+      <c r="D39" s="12">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F39" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <v>44246</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="12">
+        <v>0</v>
+      </c>
+      <c r="D40" s="12">
+        <v>200</v>
+      </c>
+      <c r="E40" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F40" s="8">
+        <f t="shared" si="36"/>
+        <v>942</v>
+      </c>
+      <c r="G40" s="8">
+        <f t="shared" ref="G40" si="38">SUM(F40,F41)</f>
+        <v>942</v>
+      </c>
+      <c r="H40" s="8">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="12">
+        <v>0</v>
+      </c>
+      <c r="D41" s="12">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F41" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <v>44245</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="12">
+        <v>0</v>
+      </c>
+      <c r="D42" s="12">
+        <v>200</v>
+      </c>
+      <c r="E42" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F42" s="8">
+        <f t="shared" ref="F42:F43" si="39">D42*E42</f>
+        <v>942</v>
+      </c>
+      <c r="G42" s="8">
+        <f t="shared" ref="G42" si="40">SUM(F42,F43)</f>
+        <v>942</v>
+      </c>
+      <c r="H42" s="8">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="12">
+        <v>0</v>
+      </c>
+      <c r="D43" s="12">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F43" s="8">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
+        <v>44244</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="12">
+        <v>0</v>
+      </c>
+      <c r="D44" s="12">
+        <v>200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F44" s="8">
+        <f t="shared" ref="F44:F45" si="41">D44*E44</f>
+        <v>942</v>
+      </c>
+      <c r="G44" s="8">
+        <f t="shared" ref="G44" si="42">SUM(F44,F45)</f>
+        <v>942</v>
+      </c>
+      <c r="H44" s="8">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="12">
+        <v>0</v>
+      </c>
+      <c r="D45" s="12">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F45" s="8">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
+        <v>44217</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="12">
+        <v>0</v>
+      </c>
+      <c r="D46" s="12">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F46" s="8">
+        <f t="shared" ref="F46:F47" si="43">D46*E46</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="8">
+        <f t="shared" ref="G46" si="44">SUM(F46,F47)</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="8">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="12">
+        <v>0</v>
+      </c>
+      <c r="D47" s="12">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F47" s="8">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
+        <v>44181</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="12">
+        <v>0</v>
+      </c>
+      <c r="D48" s="12">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F48" s="8">
+        <f t="shared" ref="F48:F55" si="45">D48*E48</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="8">
+        <f>SUM(F48,F49)</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="8">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="12">
+        <v>0</v>
+      </c>
+      <c r="D49" s="12">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F49" s="8">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>44180</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="12">
+        <v>0</v>
+      </c>
+      <c r="D50" s="12">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F50" s="8">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="8">
+        <f t="shared" ref="G50:G54" si="46">SUM(F50,F51)</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="8">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="12">
+        <v>0</v>
+      </c>
+      <c r="D51" s="12">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F51" s="8">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>44154</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="12">
+        <v>0</v>
+      </c>
+      <c r="D52" s="12">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F52" s="8">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="8">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="8">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="12">
+        <v>0</v>
+      </c>
+      <c r="D53" s="12">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F53" s="8">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>44123</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="12">
+        <v>0</v>
+      </c>
+      <c r="D54" s="12">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F54" s="8">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="8">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="8">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="12">
+        <v>0</v>
+      </c>
+      <c r="D55" s="12">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F55" s="8">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/238ee.xlsx
+++ b/sputnik/personal/ee/238ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.03.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.03.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.06.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -447,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +491,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44315</v>
+        <v>44364</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
-        <v>44313</v>
+        <v>44363</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
@@ -549,21 +549,21 @@
         <v>0</v>
       </c>
       <c r="D4" s="12">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E4" s="3">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="2">D4*E4</f>
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="G4" s="8">
         <f t="shared" ref="G4" si="3">SUM(F4,F5)</f>
-        <v>509.99999999999994</v>
+        <v>942</v>
       </c>
       <c r="H4" s="8">
-        <v>510</v>
+        <v>942</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -575,21 +575,21 @@
         <v>0</v>
       </c>
       <c r="D5" s="12">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="2"/>
-        <v>509.99999999999994</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
-        <v>44308</v>
+        <v>44362</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
@@ -598,21 +598,21 @@
         <v>0</v>
       </c>
       <c r="D6" s="12">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E6" s="3">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F7" si="4">D6*E6</f>
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" ref="G6" si="5">SUM(F6,F7)</f>
-        <v>509.99999999999994</v>
+        <v>942</v>
       </c>
       <c r="H6" s="8">
-        <v>510</v>
+        <v>942</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -624,21 +624,21 @@
         <v>0</v>
       </c>
       <c r="D7" s="12">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="4"/>
-        <v>509.99999999999994</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
-        <v>44307</v>
+        <v>44358</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
@@ -647,21 +647,21 @@
         <v>0</v>
       </c>
       <c r="D8" s="12">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8:F9" si="6">D8*E8</f>
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" ref="G8" si="7">SUM(F8,F9)</f>
-        <v>509.99999999999994</v>
+        <v>942</v>
       </c>
       <c r="H8" s="8">
-        <v>510</v>
+        <v>942</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -673,21 +673,21 @@
         <v>0</v>
       </c>
       <c r="D9" s="12">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="6"/>
-        <v>509.99999999999994</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
-        <v>44306</v>
+        <v>44315</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
@@ -696,21 +696,21 @@
         <v>0</v>
       </c>
       <c r="D10" s="12">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" ref="F10:F11" si="8">D10*E10</f>
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" ref="G10" si="9">SUM(F10,F11)</f>
-        <v>509.99999999999994</v>
+        <v>942</v>
       </c>
       <c r="H10" s="8">
-        <v>510</v>
+        <v>942</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -722,21 +722,21 @@
         <v>0</v>
       </c>
       <c r="D11" s="12">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="8"/>
-        <v>509.99999999999994</v>
+        <v>0</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
-        <v>44305</v>
+        <v>44313</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
-        <v>44302</v>
+        <v>44308</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
@@ -794,21 +794,21 @@
         <v>0</v>
       </c>
       <c r="D14" s="12">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ref="F14:F15" si="12">D14*E14</f>
-        <v>942</v>
+        <v>0</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" ref="G14" si="13">SUM(F14,F15)</f>
-        <v>942</v>
+        <v>509.99999999999994</v>
       </c>
       <c r="H14" s="8">
-        <v>942</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -820,21 +820,21 @@
         <v>0</v>
       </c>
       <c r="D15" s="12">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>509.99999999999994</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
-        <v>44301</v>
+        <v>44307</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
@@ -843,21 +843,21 @@
         <v>0</v>
       </c>
       <c r="D16" s="12">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E16" s="3">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" ref="F16:F17" si="14">D16*E16</f>
-        <v>942</v>
+        <v>0</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" ref="G16" si="15">SUM(F16,F17)</f>
-        <v>942</v>
+        <v>509.99999999999994</v>
       </c>
       <c r="H16" s="8">
-        <v>942</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -869,21 +869,21 @@
         <v>0</v>
       </c>
       <c r="D17" s="12">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>509.99999999999994</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
-        <v>44299</v>
+        <v>44306</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
@@ -892,21 +892,21 @@
         <v>0</v>
       </c>
       <c r="D18" s="12">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <v>4.71</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" ref="F18:F19" si="16">D18*E18</f>
-        <v>942</v>
+        <v>0</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" ref="G18" si="17">SUM(F18,F19)</f>
-        <v>942</v>
+        <v>509.99999999999994</v>
       </c>
       <c r="H18" s="8">
-        <v>942</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -918,21 +918,21 @@
         <v>0</v>
       </c>
       <c r="D19" s="12">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E19" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>509.99999999999994</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
-        <v>44287</v>
+        <v>44305</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>8</v>
@@ -941,21 +941,21 @@
         <v>0</v>
       </c>
       <c r="D20" s="12">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>4.71</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" ref="F20:F21" si="18">D20*E20</f>
-        <v>942</v>
+        <v>0</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" ref="G20" si="19">SUM(F20,F21)</f>
-        <v>942</v>
+        <v>509.99999999999994</v>
       </c>
       <c r="H20" s="8">
-        <v>942</v>
+        <v>510</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -967,21 +967,21 @@
         <v>0</v>
       </c>
       <c r="D21" s="12">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E21" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>509.99999999999994</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
-        <v>44281</v>
+        <v>44302</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>8</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
-        <v>44280</v>
+        <v>44301</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>8</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
-        <v>44279</v>
+        <v>44299</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
@@ -1094,7 +1094,7 @@
         <v>4.71</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" ref="F26:F29" si="24">D26*E26</f>
+        <f t="shared" ref="F26:F27" si="24">D26*E26</f>
         <v>942</v>
       </c>
       <c r="G26" s="8">
@@ -1128,7 +1128,7 @@
     </row>
     <row r="28" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
-        <v>44278</v>
+        <v>44287</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>8</v>
@@ -1137,21 +1137,21 @@
         <v>0</v>
       </c>
       <c r="D28" s="12">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E28" s="3">
         <v>4.71</v>
       </c>
       <c r="F28" s="8">
-        <f t="shared" ref="F28" si="26">D28*E28</f>
-        <v>0</v>
+        <f t="shared" ref="F28:F29" si="26">D28*E28</f>
+        <v>942</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" ref="G28" si="27">SUM(F28,F29)</f>
-        <v>509.99999999999994</v>
+        <v>942</v>
       </c>
       <c r="H28" s="8">
-        <v>510</v>
+        <v>942</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1163,21 +1163,21 @@
         <v>0</v>
       </c>
       <c r="D29" s="12">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F29" s="8">
-        <f t="shared" si="24"/>
-        <v>509.99999999999994</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
-        <v>44277</v>
+        <v>44281</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>8</v>
@@ -1186,21 +1186,21 @@
         <v>0</v>
       </c>
       <c r="D30" s="12">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E30" s="3">
         <v>4.71</v>
       </c>
       <c r="F30" s="8">
         <f t="shared" ref="F30:F31" si="28">D30*E30</f>
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="G30" s="8">
         <f t="shared" ref="G30" si="29">SUM(F30,F31)</f>
-        <v>509.99999999999994</v>
+        <v>942</v>
       </c>
       <c r="H30" s="8">
-        <v>510</v>
+        <v>942</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1212,21 +1212,21 @@
         <v>0</v>
       </c>
       <c r="D31" s="12">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E31" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F31" s="8">
         <f t="shared" si="28"/>
-        <v>509.99999999999994</v>
+        <v>0</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
-        <v>44271</v>
+        <v>44280</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>8</v>
@@ -1235,21 +1235,21 @@
         <v>0</v>
       </c>
       <c r="D32" s="12">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E32" s="3">
         <v>4.71</v>
       </c>
       <c r="F32" s="8">
         <f t="shared" ref="F32:F33" si="30">D32*E32</f>
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="G32" s="8">
         <f t="shared" ref="G32" si="31">SUM(F32,F33)</f>
-        <v>509.99999999999994</v>
+        <v>942</v>
       </c>
       <c r="H32" s="8">
-        <v>510</v>
+        <v>942</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1261,21 +1261,21 @@
         <v>0</v>
       </c>
       <c r="D33" s="12">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F33" s="8">
         <f t="shared" si="30"/>
-        <v>509.99999999999994</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
-        <v>44270</v>
+        <v>44279</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>8</v>
@@ -1290,7 +1290,7 @@
         <v>4.71</v>
       </c>
       <c r="F34" s="8">
-        <f t="shared" ref="F34:F35" si="32">D34*E34</f>
+        <f t="shared" ref="F34:F37" si="32">D34*E34</f>
         <v>942</v>
       </c>
       <c r="G34" s="8">
@@ -1324,7 +1324,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
-        <v>44251</v>
+        <v>44278</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>8</v>
@@ -1333,21 +1333,21 @@
         <v>0</v>
       </c>
       <c r="D36" s="12">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E36" s="3">
         <v>4.71</v>
       </c>
       <c r="F36" s="8">
-        <f t="shared" ref="F36:F37" si="34">D36*E36</f>
-        <v>942</v>
+        <f t="shared" ref="F36" si="34">D36*E36</f>
+        <v>0</v>
       </c>
       <c r="G36" s="8">
         <f t="shared" ref="G36" si="35">SUM(F36,F37)</f>
-        <v>942</v>
+        <v>509.99999999999994</v>
       </c>
       <c r="H36" s="8">
-        <v>942</v>
+        <v>510</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1359,21 +1359,21 @@
         <v>0</v>
       </c>
       <c r="D37" s="12">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E37" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F37" s="8">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>509.99999999999994</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
-        <v>44247</v>
+        <v>44277</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>8</v>
@@ -1382,21 +1382,21 @@
         <v>0</v>
       </c>
       <c r="D38" s="12">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E38" s="3">
         <v>4.71</v>
       </c>
       <c r="F38" s="8">
-        <f t="shared" ref="F38:F41" si="36">D38*E38</f>
-        <v>942</v>
+        <f t="shared" ref="F38:F39" si="36">D38*E38</f>
+        <v>0</v>
       </c>
       <c r="G38" s="8">
         <f t="shared" ref="G38" si="37">SUM(F38,F39)</f>
-        <v>942</v>
+        <v>509.99999999999994</v>
       </c>
       <c r="H38" s="8">
-        <v>942</v>
+        <v>510</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1408,21 +1408,21 @@
         <v>0</v>
       </c>
       <c r="D39" s="12">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E39" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F39" s="8">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>509.99999999999994</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
-        <v>44246</v>
+        <v>44271</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>8</v>
@@ -1431,21 +1431,21 @@
         <v>0</v>
       </c>
       <c r="D40" s="12">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E40" s="3">
         <v>4.71</v>
       </c>
       <c r="F40" s="8">
-        <f t="shared" si="36"/>
-        <v>942</v>
+        <f t="shared" ref="F40:F41" si="38">D40*E40</f>
+        <v>0</v>
       </c>
       <c r="G40" s="8">
-        <f t="shared" ref="G40" si="38">SUM(F40,F41)</f>
-        <v>942</v>
+        <f t="shared" ref="G40" si="39">SUM(F40,F41)</f>
+        <v>509.99999999999994</v>
       </c>
       <c r="H40" s="8">
-        <v>942</v>
+        <v>510</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1457,21 +1457,21 @@
         <v>0</v>
       </c>
       <c r="D41" s="12">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F41" s="8">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>509.99999999999994</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
-        <v>44245</v>
+        <v>44270</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>8</v>
@@ -1486,11 +1486,11 @@
         <v>4.71</v>
       </c>
       <c r="F42" s="8">
-        <f t="shared" ref="F42:F43" si="39">D42*E42</f>
+        <f t="shared" ref="F42:F43" si="40">D42*E42</f>
         <v>942</v>
       </c>
       <c r="G42" s="8">
-        <f t="shared" ref="G42" si="40">SUM(F42,F43)</f>
+        <f t="shared" ref="G42" si="41">SUM(F42,F43)</f>
         <v>942</v>
       </c>
       <c r="H42" s="8">
@@ -1512,7 +1512,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="F43" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="G43" s="3"/>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
-        <v>44244</v>
+        <v>44251</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>8</v>
@@ -1535,11 +1535,11 @@
         <v>4.71</v>
       </c>
       <c r="F44" s="8">
-        <f t="shared" ref="F44:F45" si="41">D44*E44</f>
+        <f t="shared" ref="F44:F45" si="42">D44*E44</f>
         <v>942</v>
       </c>
       <c r="G44" s="8">
-        <f t="shared" ref="G44" si="42">SUM(F44,F45)</f>
+        <f t="shared" ref="G44" si="43">SUM(F44,F45)</f>
         <v>942</v>
       </c>
       <c r="H44" s="8">
@@ -1561,7 +1561,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="F45" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="G45" s="3"/>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
-        <v>44217</v>
+        <v>44247</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>8</v>
@@ -1578,21 +1578,21 @@
         <v>0</v>
       </c>
       <c r="D46" s="12">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>4.71</v>
       </c>
       <c r="F46" s="8">
-        <f t="shared" ref="F46:F47" si="43">D46*E46</f>
-        <v>0</v>
+        <f t="shared" ref="F46:F49" si="44">D46*E46</f>
+        <v>942</v>
       </c>
       <c r="G46" s="8">
-        <f t="shared" ref="G46" si="44">SUM(F46,F47)</f>
-        <v>0</v>
+        <f t="shared" ref="G46" si="45">SUM(F46,F47)</f>
+        <v>942</v>
       </c>
       <c r="H46" s="8">
-        <v>2603</v>
+        <v>942</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1610,7 +1610,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="F47" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="G47" s="3"/>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
-        <v>44181</v>
+        <v>44246</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>8</v>
@@ -1627,21 +1627,21 @@
         <v>0</v>
       </c>
       <c r="D48" s="12">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>4.71</v>
       </c>
       <c r="F48" s="8">
-        <f t="shared" ref="F48:F55" si="45">D48*E48</f>
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>942</v>
       </c>
       <c r="G48" s="8">
-        <f>SUM(F48,F49)</f>
-        <v>0</v>
+        <f t="shared" ref="G48" si="46">SUM(F48,F49)</f>
+        <v>942</v>
       </c>
       <c r="H48" s="8">
-        <v>219</v>
+        <v>942</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1659,15 +1659,15 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="F49" s="8">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="8"/>
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="3"/>
       <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
-        <v>44180</v>
+      <c r="A50" s="14">
+        <v>44245</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>8</v>
@@ -1676,21 +1676,21 @@
         <v>0</v>
       </c>
       <c r="D50" s="12">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E50" s="3">
         <v>4.71</v>
       </c>
       <c r="F50" s="8">
-        <f t="shared" si="45"/>
-        <v>0</v>
+        <f t="shared" ref="F50:F51" si="47">D50*E50</f>
+        <v>942</v>
       </c>
       <c r="G50" s="8">
-        <f t="shared" ref="G50:G54" si="46">SUM(F50,F51)</f>
-        <v>0</v>
+        <f t="shared" ref="G50" si="48">SUM(F50,F51)</f>
+        <v>942</v>
       </c>
       <c r="H50" s="8">
-        <v>879</v>
+        <v>942</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -1708,15 +1708,15 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="F51" s="8">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="8"/>
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="3"/>
       <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>44154</v>
+      <c r="A52" s="14">
+        <v>44244</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>8</v>
@@ -1725,21 +1725,21 @@
         <v>0</v>
       </c>
       <c r="D52" s="12">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E52" s="3">
         <v>4.71</v>
       </c>
       <c r="F52" s="8">
-        <f t="shared" si="45"/>
-        <v>0</v>
+        <f t="shared" ref="F52:F53" si="49">D52*E52</f>
+        <v>942</v>
       </c>
       <c r="G52" s="8">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <f t="shared" ref="G52" si="50">SUM(F52,F53)</f>
+        <v>942</v>
       </c>
       <c r="H52" s="8">
-        <v>2030</v>
+        <v>942</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -1757,15 +1757,15 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="F53" s="8">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="8"/>
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="3"/>
       <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <v>44123</v>
+      <c r="A54" s="14">
+        <v>44217</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>8</v>
@@ -1780,15 +1780,15 @@
         <v>4.71</v>
       </c>
       <c r="F54" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="F54:F55" si="51">D54*E54</f>
         <v>0</v>
       </c>
       <c r="G54" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="G54" si="52">SUM(F54,F55)</f>
         <v>0</v>
       </c>
       <c r="H54" s="8">
-        <v>708</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -1806,81 +1806,277 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="F55" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
+      <c r="A56" s="14">
+        <v>44181</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="12">
+        <v>0</v>
+      </c>
+      <c r="D56" s="12">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F56" s="8">
+        <f t="shared" ref="F56:F63" si="53">D56*E56</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="8">
+        <f>SUM(F56,F57)</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="8">
+        <v>219</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="3"/>
+      <c r="B57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="12">
+        <v>0</v>
+      </c>
+      <c r="D57" s="12">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F57" s="8">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="8"/>
       <c r="H57" s="8"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
+      <c r="A58" s="4">
+        <v>44180</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="12">
+        <v>0</v>
+      </c>
+      <c r="D58" s="12">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F58" s="8">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="8">
+        <f t="shared" ref="G58:G62" si="54">SUM(F58,F59)</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="8">
+        <v>879</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="12">
+        <v>0</v>
+      </c>
+      <c r="D59" s="12">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F59" s="8">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
+      <c r="A60" s="4">
+        <v>44154</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="12">
+        <v>0</v>
+      </c>
+      <c r="D60" s="12">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F60" s="8">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="8">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="8">
+        <v>2030</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="12">
+        <v>0</v>
+      </c>
+      <c r="D61" s="12">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F61" s="8">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
+      <c r="A62" s="4">
+        <v>44123</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="12">
+        <v>0</v>
+      </c>
+      <c r="D62" s="12">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F62" s="8">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="8">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="8">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="12">
+        <v>0</v>
+      </c>
+      <c r="D63" s="12">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F63" s="8">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="3"/>
+      <c r="H63" s="8"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="8"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/238ee.xlsx
+++ b/sputnik/personal/ee/238ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.06.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\23.07.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.07.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -449,7 +449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/sputnik/personal/ee/238ee.xlsx
+++ b/sputnik/personal/ee/238ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\23.07.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.07.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\13.08.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 31.07.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="12">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>T2</t>
+  </si>
+  <si>
+    <t>итого</t>
+  </si>
+  <si>
+    <t>доплатить</t>
   </si>
 </sst>
 </file>
@@ -447,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,30 +497,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44364</v>
+        <v>44431</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="12">
-        <v>0</v>
+        <v>9226</v>
       </c>
       <c r="D2" s="12">
-        <v>200</v>
+        <f>SUM(C2,-C4)</f>
+        <v>0</v>
       </c>
       <c r="E2" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>942</v>
+        <v>0</v>
       </c>
       <c r="G2" s="8">
         <f t="shared" ref="G2" si="1">SUM(F2,F3)</f>
-        <v>942</v>
+        <v>0</v>
       </c>
       <c r="H2" s="8">
-        <v>942</v>
+        <v>32476</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -523,13 +530,14 @@
         <v>9</v>
       </c>
       <c r="C3" s="12">
-        <v>0</v>
+        <v>6226</v>
       </c>
       <c r="D3" s="12">
+        <f>SUM(C3,-C5)</f>
         <v>0</v>
       </c>
       <c r="E3" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="0"/>
@@ -540,30 +548,31 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
-        <v>44363</v>
+        <v>44422</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="12">
-        <v>0</v>
+        <v>9226</v>
       </c>
       <c r="D4" s="12">
-        <v>200</v>
+        <f>SUM(C4,-C6)</f>
+        <v>4369</v>
       </c>
       <c r="E4" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="2">D4*E4</f>
-        <v>942</v>
+        <v>21670.240000000002</v>
       </c>
       <c r="G4" s="8">
         <f t="shared" ref="G4" si="3">SUM(F4,F5)</f>
-        <v>942</v>
+        <v>32476</v>
       </c>
       <c r="H4" s="8">
-        <v>942</v>
+        <v>996.17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -572,30 +581,31 @@
         <v>9</v>
       </c>
       <c r="C5" s="12">
-        <v>0</v>
+        <v>6226</v>
       </c>
       <c r="D5" s="12">
-        <v>0</v>
+        <f>SUM(C5,-C7)</f>
+        <v>4032</v>
       </c>
       <c r="E5" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10805.76</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="12">
-        <v>0</v>
+        <v>4857</v>
       </c>
       <c r="D6" s="12">
         <v>200</v>
@@ -621,7 +631,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="12">
-        <v>0</v>
+        <v>2194</v>
       </c>
       <c r="D7" s="12">
         <v>0</v>
@@ -638,13 +648,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
-        <v>44358</v>
+        <v>44363</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="12">
-        <v>0</v>
+        <v>4657</v>
       </c>
       <c r="D8" s="12">
         <v>200</v>
@@ -670,7 +680,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="12">
-        <v>0</v>
+        <v>2194</v>
       </c>
       <c r="D9" s="12">
         <v>0</v>
@@ -687,13 +697,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
-        <v>44315</v>
+        <v>44362</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="12">
-        <v>0</v>
+        <v>4457</v>
       </c>
       <c r="D10" s="12">
         <v>200</v>
@@ -719,7 +729,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="12">
-        <v>0</v>
+        <v>2194</v>
       </c>
       <c r="D11" s="12">
         <v>0</v>
@@ -736,30 +746,30 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
-        <v>44313</v>
+        <v>44358</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="12">
-        <v>0</v>
+        <v>4257</v>
       </c>
       <c r="D12" s="12">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" ref="F12:F13" si="10">D12*E12</f>
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" ref="G12" si="11">SUM(F12,F13)</f>
-        <v>509.99999999999994</v>
+        <v>942</v>
       </c>
       <c r="H12" s="8">
-        <v>510</v>
+        <v>942</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -768,47 +778,47 @@
         <v>9</v>
       </c>
       <c r="C13" s="12">
-        <v>0</v>
+        <v>2194</v>
       </c>
       <c r="D13" s="12">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E13" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="10"/>
-        <v>509.99999999999994</v>
+        <v>0</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
-        <v>44308</v>
+        <v>44315</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="12">
-        <v>0</v>
+        <v>4057</v>
       </c>
       <c r="D14" s="12">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E14" s="3">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ref="F14:F15" si="12">D14*E14</f>
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" ref="G14" si="13">SUM(F14,F15)</f>
-        <v>509.99999999999994</v>
+        <v>942</v>
       </c>
       <c r="H14" s="8">
-        <v>510</v>
+        <v>942</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -817,30 +827,30 @@
         <v>9</v>
       </c>
       <c r="C15" s="12">
-        <v>0</v>
+        <v>2194</v>
       </c>
       <c r="D15" s="12">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="12"/>
-        <v>509.99999999999994</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
-        <v>44307</v>
+        <v>44313</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="12">
-        <v>0</v>
+        <v>3857</v>
       </c>
       <c r="D16" s="12">
         <v>0</v>
@@ -866,7 +876,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="12">
-        <v>0</v>
+        <v>2194</v>
       </c>
       <c r="D17" s="12">
         <v>200</v>
@@ -883,13 +893,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
-        <v>44306</v>
+        <v>44308</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="12">
-        <v>0</v>
+        <v>3857</v>
       </c>
       <c r="D18" s="12">
         <v>0</v>
@@ -915,7 +925,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="12">
-        <v>0</v>
+        <v>1994</v>
       </c>
       <c r="D19" s="12">
         <v>200</v>
@@ -932,13 +942,13 @@
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
-        <v>44305</v>
+        <v>44307</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="12">
-        <v>0</v>
+        <v>3857</v>
       </c>
       <c r="D20" s="12">
         <v>0</v>
@@ -964,7 +974,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="12">
-        <v>0</v>
+        <v>1794</v>
       </c>
       <c r="D21" s="12">
         <v>200</v>
@@ -981,30 +991,30 @@
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
-        <v>44302</v>
+        <v>44306</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="12">
-        <v>0</v>
+        <v>3857</v>
       </c>
       <c r="D22" s="12">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>4.71</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" ref="F22:F23" si="20">D22*E22</f>
-        <v>942</v>
+        <v>0</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" ref="G22" si="21">SUM(F22,F23)</f>
-        <v>942</v>
+        <v>509.99999999999994</v>
       </c>
       <c r="H22" s="8">
-        <v>942</v>
+        <v>510</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1013,47 +1023,47 @@
         <v>9</v>
       </c>
       <c r="C23" s="12">
-        <v>0</v>
+        <v>1594</v>
       </c>
       <c r="D23" s="12">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E23" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>509.99999999999994</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
-        <v>44301</v>
+        <v>44305</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="12">
-        <v>0</v>
+        <v>3857</v>
       </c>
       <c r="D24" s="12">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>4.71</v>
       </c>
       <c r="F24" s="8">
         <f t="shared" ref="F24:F25" si="22">D24*E24</f>
-        <v>942</v>
+        <v>0</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" ref="G24" si="23">SUM(F24,F25)</f>
-        <v>942</v>
+        <v>509.99999999999994</v>
       </c>
       <c r="H24" s="8">
-        <v>942</v>
+        <v>510</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1062,30 +1072,30 @@
         <v>9</v>
       </c>
       <c r="C25" s="12">
-        <v>0</v>
+        <v>1394</v>
       </c>
       <c r="D25" s="12">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E25" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>509.99999999999994</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
-        <v>44299</v>
+        <v>44302</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="12">
-        <v>0</v>
+        <v>3857</v>
       </c>
       <c r="D26" s="12">
         <v>200</v>
@@ -1111,7 +1121,7 @@
         <v>9</v>
       </c>
       <c r="C27" s="12">
-        <v>0</v>
+        <v>1194</v>
       </c>
       <c r="D27" s="12">
         <v>0</v>
@@ -1128,13 +1138,13 @@
     </row>
     <row r="28" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
-        <v>44287</v>
+        <v>44301</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="12">
-        <v>0</v>
+        <v>3657</v>
       </c>
       <c r="D28" s="12">
         <v>200</v>
@@ -1160,7 +1170,7 @@
         <v>9</v>
       </c>
       <c r="C29" s="12">
-        <v>0</v>
+        <v>1194</v>
       </c>
       <c r="D29" s="12">
         <v>0</v>
@@ -1177,13 +1187,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
-        <v>44281</v>
+        <v>44299</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="12">
-        <v>0</v>
+        <v>3457</v>
       </c>
       <c r="D30" s="12">
         <v>200</v>
@@ -1209,7 +1219,7 @@
         <v>9</v>
       </c>
       <c r="C31" s="12">
-        <v>0</v>
+        <v>1194</v>
       </c>
       <c r="D31" s="12">
         <v>0</v>
@@ -1226,26 +1236,27 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
-        <v>44280</v>
+        <v>44287</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="12">
-        <v>0</v>
+        <v>3257</v>
       </c>
       <c r="D32" s="12">
+        <f t="shared" ref="D32:D47" si="30">SUM(C32,-C34)</f>
         <v>200</v>
       </c>
       <c r="E32" s="3">
         <v>4.71</v>
       </c>
       <c r="F32" s="8">
-        <f t="shared" ref="F32:F33" si="30">D32*E32</f>
+        <f t="shared" ref="F32:F33" si="31">D32*E32</f>
         <v>942</v>
       </c>
       <c r="G32" s="8">
-        <f t="shared" ref="G32" si="31">SUM(F32,F33)</f>
+        <f t="shared" ref="G32" si="32">SUM(F32,F33)</f>
         <v>942</v>
       </c>
       <c r="H32" s="8">
@@ -1258,16 +1269,17 @@
         <v>9</v>
       </c>
       <c r="C33" s="12">
-        <v>0</v>
+        <v>1194</v>
       </c>
       <c r="D33" s="12">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F33" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="G33" s="3"/>
@@ -1275,26 +1287,27 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
-        <v>44279</v>
+        <v>44281</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="12">
-        <v>0</v>
+        <v>3057</v>
       </c>
       <c r="D34" s="12">
+        <f t="shared" si="30"/>
         <v>200</v>
       </c>
       <c r="E34" s="3">
         <v>4.71</v>
       </c>
       <c r="F34" s="8">
-        <f t="shared" ref="F34:F37" si="32">D34*E34</f>
+        <f t="shared" ref="F34:F35" si="33">D34*E34</f>
         <v>942</v>
       </c>
       <c r="G34" s="8">
-        <f t="shared" ref="G34" si="33">SUM(F34,F35)</f>
+        <f t="shared" ref="G34" si="34">SUM(F34,F35)</f>
         <v>942</v>
       </c>
       <c r="H34" s="8">
@@ -1307,16 +1320,17 @@
         <v>9</v>
       </c>
       <c r="C35" s="12">
-        <v>0</v>
+        <v>1194</v>
       </c>
       <c r="D35" s="12">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F35" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G35" s="3"/>
@@ -1324,30 +1338,31 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
-        <v>44278</v>
+        <v>44280</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="12">
-        <v>0</v>
+        <v>2857</v>
       </c>
       <c r="D36" s="12">
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>200</v>
       </c>
       <c r="E36" s="3">
         <v>4.71</v>
       </c>
       <c r="F36" s="8">
-        <f t="shared" ref="F36" si="34">D36*E36</f>
-        <v>0</v>
+        <f t="shared" ref="F36:F37" si="35">D36*E36</f>
+        <v>942</v>
       </c>
       <c r="G36" s="8">
-        <f t="shared" ref="G36" si="35">SUM(F36,F37)</f>
-        <v>509.99999999999994</v>
+        <f t="shared" ref="G36" si="36">SUM(F36,F37)</f>
+        <v>942</v>
       </c>
       <c r="H36" s="8">
-        <v>510</v>
+        <v>942</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1356,47 +1371,49 @@
         <v>9</v>
       </c>
       <c r="C37" s="12">
-        <v>0</v>
+        <v>1194</v>
       </c>
       <c r="D37" s="12">
-        <v>200</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="E37" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F37" s="8">
-        <f t="shared" si="32"/>
-        <v>509.99999999999994</v>
+        <f t="shared" si="35"/>
+        <v>0</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="12">
-        <v>0</v>
+        <v>2657</v>
       </c>
       <c r="D38" s="12">
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>200</v>
       </c>
       <c r="E38" s="3">
         <v>4.71</v>
       </c>
       <c r="F38" s="8">
-        <f t="shared" ref="F38:F39" si="36">D38*E38</f>
-        <v>0</v>
+        <f t="shared" ref="F38:F41" si="37">D38*E38</f>
+        <v>942</v>
       </c>
       <c r="G38" s="8">
-        <f t="shared" ref="G38" si="37">SUM(F38,F39)</f>
-        <v>509.99999999999994</v>
+        <f t="shared" ref="G38" si="38">SUM(F38,F39)</f>
+        <v>942</v>
       </c>
       <c r="H38" s="8">
-        <v>510</v>
+        <v>942</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1405,43 +1422,45 @@
         <v>9</v>
       </c>
       <c r="C39" s="12">
-        <v>0</v>
+        <v>1194</v>
       </c>
       <c r="D39" s="12">
-        <v>200</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="E39" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F39" s="8">
-        <f t="shared" si="36"/>
-        <v>509.99999999999994</v>
+        <f t="shared" si="37"/>
+        <v>0</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
-        <v>44271</v>
+        <v>44278</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="12">
-        <v>0</v>
+        <v>2457</v>
       </c>
       <c r="D40" s="12">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E40" s="3">
         <v>4.71</v>
       </c>
       <c r="F40" s="8">
-        <f t="shared" ref="F40:F41" si="38">D40*E40</f>
+        <f t="shared" ref="F40" si="39">D40*E40</f>
         <v>0</v>
       </c>
       <c r="G40" s="8">
-        <f t="shared" ref="G40" si="39">SUM(F40,F41)</f>
+        <f t="shared" ref="G40" si="40">SUM(F40,F41)</f>
         <v>509.99999999999994</v>
       </c>
       <c r="H40" s="8">
@@ -1454,16 +1473,17 @@
         <v>9</v>
       </c>
       <c r="C41" s="12">
-        <v>0</v>
+        <v>1194</v>
       </c>
       <c r="D41" s="12">
+        <f t="shared" si="30"/>
         <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F41" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>509.99999999999994</v>
       </c>
       <c r="G41" s="3"/>
@@ -1471,30 +1491,31 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="12">
-        <v>0</v>
+        <v>2457</v>
       </c>
       <c r="D42" s="12">
-        <v>200</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
         <v>4.71</v>
       </c>
       <c r="F42" s="8">
-        <f t="shared" ref="F42:F43" si="40">D42*E42</f>
-        <v>942</v>
+        <f t="shared" ref="F42:F43" si="41">D42*E42</f>
+        <v>0</v>
       </c>
       <c r="G42" s="8">
-        <f t="shared" ref="G42" si="41">SUM(F42,F43)</f>
-        <v>942</v>
+        <f t="shared" ref="G42" si="42">SUM(F42,F43)</f>
+        <v>509.99999999999994</v>
       </c>
       <c r="H42" s="8">
-        <v>942</v>
+        <v>510</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1503,47 +1524,49 @@
         <v>9</v>
       </c>
       <c r="C43" s="12">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="D43" s="12">
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F43" s="8">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>509.99999999999994</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
-        <v>44251</v>
+        <v>44271</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="12">
-        <v>0</v>
+        <v>2457</v>
       </c>
       <c r="D44" s="12">
-        <v>200</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
         <v>4.71</v>
       </c>
       <c r="F44" s="8">
-        <f t="shared" ref="F44:F45" si="42">D44*E44</f>
-        <v>942</v>
+        <f t="shared" ref="F44:F45" si="43">D44*E44</f>
+        <v>0</v>
       </c>
       <c r="G44" s="8">
-        <f t="shared" ref="G44" si="43">SUM(F44,F45)</f>
-        <v>942</v>
+        <f t="shared" ref="G44" si="44">SUM(F44,F45)</f>
+        <v>509.99999999999994</v>
       </c>
       <c r="H44" s="8">
-        <v>942</v>
+        <v>510</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1552,43 +1575,45 @@
         <v>9</v>
       </c>
       <c r="C45" s="12">
-        <v>0</v>
+        <v>794</v>
       </c>
       <c r="D45" s="12">
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F45" s="8">
-        <f t="shared" si="42"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>509.99999999999994</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="8"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
-        <v>44247</v>
+        <v>44270</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="12">
-        <v>0</v>
+        <v>2457</v>
       </c>
       <c r="D46" s="12">
+        <f t="shared" si="30"/>
         <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>4.71</v>
       </c>
       <c r="F46" s="8">
-        <f t="shared" ref="F46:F49" si="44">D46*E46</f>
+        <f t="shared" ref="F46:F47" si="45">D46*E46</f>
         <v>942</v>
       </c>
       <c r="G46" s="8">
-        <f t="shared" ref="G46" si="45">SUM(F46,F47)</f>
+        <f t="shared" ref="G46" si="46">SUM(F46,F47)</f>
         <v>942</v>
       </c>
       <c r="H46" s="8">
@@ -1601,16 +1626,17 @@
         <v>9</v>
       </c>
       <c r="C47" s="12">
-        <v>0</v>
+        <v>594</v>
       </c>
       <c r="D47" s="12">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E47" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F47" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="G47" s="3"/>
@@ -1618,26 +1644,27 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
-        <v>44246</v>
+        <v>44251</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="12">
-        <v>0</v>
+        <v>2257</v>
       </c>
       <c r="D48" s="12">
+        <f t="shared" ref="D48:D57" si="47">SUM(C48,-C50)</f>
         <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>4.71</v>
       </c>
       <c r="F48" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="F48:F49" si="48">D48*E48</f>
         <v>942</v>
       </c>
       <c r="G48" s="8">
-        <f t="shared" ref="G48" si="46">SUM(F48,F49)</f>
+        <f t="shared" ref="G48" si="49">SUM(F48,F49)</f>
         <v>942</v>
       </c>
       <c r="H48" s="8">
@@ -1650,16 +1677,17 @@
         <v>9</v>
       </c>
       <c r="C49" s="12">
-        <v>0</v>
+        <v>594</v>
       </c>
       <c r="D49" s="12">
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="E49" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F49" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G49" s="3"/>
@@ -1667,26 +1695,27 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
-        <v>44245</v>
+        <v>44247</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="12">
-        <v>0</v>
+        <v>2057</v>
       </c>
       <c r="D50" s="12">
+        <f t="shared" si="47"/>
         <v>200</v>
       </c>
       <c r="E50" s="3">
         <v>4.71</v>
       </c>
       <c r="F50" s="8">
-        <f t="shared" ref="F50:F51" si="47">D50*E50</f>
+        <f t="shared" ref="F50:F53" si="50">D50*E50</f>
         <v>942</v>
       </c>
       <c r="G50" s="8">
-        <f t="shared" ref="G50" si="48">SUM(F50,F51)</f>
+        <f t="shared" ref="G50" si="51">SUM(F50,F51)</f>
         <v>942</v>
       </c>
       <c r="H50" s="8">
@@ -1699,16 +1728,17 @@
         <v>9</v>
       </c>
       <c r="C51" s="12">
-        <v>0</v>
+        <v>594</v>
       </c>
       <c r="D51" s="12">
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="E51" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F51" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="G51" s="3"/>
@@ -1716,26 +1746,27 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
-        <v>44244</v>
+        <v>44246</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="12">
-        <v>0</v>
+        <v>1857</v>
       </c>
       <c r="D52" s="12">
+        <f t="shared" si="47"/>
         <v>200</v>
       </c>
       <c r="E52" s="3">
         <v>4.71</v>
       </c>
       <c r="F52" s="8">
-        <f t="shared" ref="F52:F53" si="49">D52*E52</f>
+        <f t="shared" si="50"/>
         <v>942</v>
       </c>
       <c r="G52" s="8">
-        <f t="shared" ref="G52" si="50">SUM(F52,F53)</f>
+        <f t="shared" ref="G52" si="52">SUM(F52,F53)</f>
         <v>942</v>
       </c>
       <c r="H52" s="8">
@@ -1748,16 +1779,17 @@
         <v>9</v>
       </c>
       <c r="C53" s="12">
-        <v>0</v>
+        <v>594</v>
       </c>
       <c r="D53" s="12">
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="E53" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F53" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="G53" s="3"/>
@@ -1765,30 +1797,31 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
-        <v>44217</v>
+        <v>44245</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="12">
-        <v>0</v>
+        <v>1657</v>
       </c>
       <c r="D54" s="12">
-        <v>0</v>
+        <f t="shared" si="47"/>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
         <v>4.71</v>
       </c>
       <c r="F54" s="8">
-        <f t="shared" ref="F54:F55" si="51">D54*E54</f>
-        <v>0</v>
+        <f t="shared" ref="F54:F55" si="53">D54*E54</f>
+        <v>942</v>
       </c>
       <c r="G54" s="8">
-        <f t="shared" ref="G54" si="52">SUM(F54,F55)</f>
-        <v>0</v>
+        <f t="shared" ref="G54" si="54">SUM(F54,F55)</f>
+        <v>942</v>
       </c>
       <c r="H54" s="8">
-        <v>2603</v>
+        <v>942</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -1797,16 +1830,17 @@
         <v>9</v>
       </c>
       <c r="C55" s="12">
-        <v>0</v>
+        <v>594</v>
       </c>
       <c r="D55" s="12">
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="E55" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F55" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G55" s="3"/>
@@ -1814,30 +1848,31 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
-        <v>44181</v>
+        <v>44244</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="12">
-        <v>0</v>
+        <v>1457</v>
       </c>
       <c r="D56" s="12">
-        <v>0</v>
+        <f t="shared" si="47"/>
+        <v>200</v>
       </c>
       <c r="E56" s="3">
         <v>4.71</v>
       </c>
       <c r="F56" s="8">
-        <f t="shared" ref="F56:F63" si="53">D56*E56</f>
-        <v>0</v>
+        <f t="shared" ref="F56:F57" si="55">D56*E56</f>
+        <v>942</v>
       </c>
       <c r="G56" s="8">
-        <f>SUM(F56,F57)</f>
-        <v>0</v>
+        <f t="shared" ref="G56" si="56">SUM(F56,F57)</f>
+        <v>942</v>
       </c>
       <c r="H56" s="8">
-        <v>219</v>
+        <v>942</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -1846,47 +1881,49 @@
         <v>9</v>
       </c>
       <c r="C57" s="12">
-        <v>0</v>
+        <v>594</v>
       </c>
       <c r="D57" s="12">
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F57" s="8">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="8"/>
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="3"/>
       <c r="H57" s="8"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
-        <v>44180</v>
+      <c r="A58" s="14">
+        <v>44217</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="12">
-        <v>0</v>
+        <v>1257</v>
       </c>
       <c r="D58" s="12">
-        <v>0</v>
+        <f>SUM(C58,-C62)</f>
+        <v>445</v>
       </c>
       <c r="E58" s="3">
         <v>4.71</v>
       </c>
       <c r="F58" s="8">
-        <f t="shared" si="53"/>
-        <v>0</v>
+        <f t="shared" ref="F58:F59" si="57">D58*E58</f>
+        <v>2095.9499999999998</v>
       </c>
       <c r="G58" s="8">
-        <f t="shared" ref="G58:G62" si="54">SUM(F58,F59)</f>
-        <v>0</v>
+        <f t="shared" ref="G58" si="58">SUM(F58,F59)</f>
+        <v>2603.3999999999996</v>
       </c>
       <c r="H58" s="8">
-        <v>879</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -1895,24 +1932,25 @@
         <v>9</v>
       </c>
       <c r="C59" s="12">
-        <v>0</v>
+        <v>594</v>
       </c>
       <c r="D59" s="12">
-        <v>0</v>
+        <f>SUM(C59,-C63)</f>
+        <v>199</v>
       </c>
       <c r="E59" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F59" s="8">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="G59" s="8"/>
+        <f t="shared" si="57"/>
+        <v>507.45</v>
+      </c>
+      <c r="G59" s="3"/>
       <c r="H59" s="8"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
-        <v>44154</v>
+      <c r="A60" s="14">
+        <v>44181</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>8</v>
@@ -1927,15 +1965,15 @@
         <v>4.71</v>
       </c>
       <c r="F60" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="F60:F67" si="59">D60*E60</f>
         <v>0</v>
       </c>
       <c r="G60" s="8">
-        <f t="shared" si="54"/>
+        <f>SUM(F60,F61)</f>
         <v>0</v>
       </c>
       <c r="H60" s="8">
-        <v>2030</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -1953,7 +1991,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="F61" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="G61" s="8"/>
@@ -1961,30 +1999,31 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>44123</v>
+        <v>44180</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="12">
-        <v>0</v>
+        <v>812</v>
       </c>
       <c r="D62" s="12">
-        <v>0</v>
+        <f t="shared" ref="D62:D63" si="60">SUM(C62,-C64)</f>
+        <v>186</v>
       </c>
       <c r="E62" s="3">
         <v>4.71</v>
       </c>
       <c r="F62" s="8">
-        <f t="shared" si="53"/>
-        <v>0</v>
+        <f t="shared" si="59"/>
+        <v>876.06</v>
       </c>
       <c r="G62" s="8">
-        <f t="shared" si="54"/>
-        <v>0</v>
+        <f t="shared" ref="G62:G66" si="61">SUM(F62,F63)</f>
+        <v>1095.3599999999999</v>
       </c>
       <c r="H62" s="8">
-        <v>708</v>
+        <v>879</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -1993,90 +2032,204 @@
         <v>9</v>
       </c>
       <c r="C63" s="12">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="D63" s="12">
-        <v>0</v>
+        <f t="shared" si="60"/>
+        <v>86</v>
       </c>
       <c r="E63" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F63" s="8">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="3"/>
+        <f t="shared" si="59"/>
+        <v>219.29999999999998</v>
+      </c>
+      <c r="G63" s="8"/>
       <c r="H63" s="8"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
+      <c r="A64" s="4">
+        <v>44154</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="12">
+        <v>626</v>
+      </c>
+      <c r="D64" s="12">
+        <f>SUM(C64,-C66)</f>
+        <v>463</v>
+      </c>
+      <c r="E64" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F64" s="8">
+        <f t="shared" si="59"/>
+        <v>2180.73</v>
+      </c>
+      <c r="G64" s="8">
+        <f t="shared" si="61"/>
+        <v>2744.2799999999997</v>
+      </c>
+      <c r="H64" s="8">
+        <v>2030</v>
+      </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="3"/>
+      <c r="B65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="12">
+        <v>309</v>
+      </c>
+      <c r="D65" s="12">
+        <f>SUM(C65,-C67)</f>
+        <v>221</v>
+      </c>
+      <c r="E65" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F65" s="8">
+        <f t="shared" si="59"/>
+        <v>563.54999999999995</v>
+      </c>
+      <c r="G65" s="8"/>
       <c r="H65" s="8"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
+      <c r="A66" s="4">
+        <v>44123</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="12">
+        <v>163</v>
+      </c>
+      <c r="D66" s="12">
+        <v>163</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F66" s="8">
+        <f t="shared" si="59"/>
+        <v>767.73</v>
+      </c>
+      <c r="G66" s="8">
+        <f t="shared" si="61"/>
+        <v>992.13</v>
+      </c>
+      <c r="H66" s="8">
+        <v>708</v>
+      </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
+      <c r="A67" s="4"/>
+      <c r="B67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="12">
+        <v>88</v>
+      </c>
+      <c r="D67" s="12">
+        <v>88</v>
+      </c>
+      <c r="E67" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F67" s="8">
+        <f t="shared" si="59"/>
+        <v>224.39999999999998</v>
+      </c>
       <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
+      <c r="H67" s="8"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
+      <c r="A68" s="4"/>
       <c r="B68" s="5"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
+      <c r="F68" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="8">
+        <f>SUM(G2:G67)</f>
+        <v>60947.17</v>
+      </c>
+      <c r="H68" s="8">
+        <f>SUM(H2:H67)</f>
+        <v>60947.17</v>
+      </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="3"/>
+      <c r="H69" s="8">
+        <f>SUM(G68,-H68)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="6"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
